--- a/resultados/resultados_slot11.xlsx
+++ b/resultados/resultados_slot11.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16.40635975914216</v>
+        <v>4359440.548861713</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02496790885925293</v>
+        <v>0.001310110092163086</v>
       </c>
       <c r="G2" t="n">
-        <v>1005</v>
+        <v>27</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
+          <t>fidap005.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,25 +527,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.40643403711349</v>
+        <v>4359599.815813746</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001543760299682617</v>
+        <v>0.0007317066192626953</v>
       </c>
       <c r="G3" t="n">
-        <v>1005</v>
+        <v>27</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,20 +564,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.912431480213071</v>
+        <v>11.86393030934931</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01002287864685059</v>
+        <v>0.2811086177825928</v>
       </c>
       <c r="G4" t="n">
-        <v>1007</v>
+        <v>900</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
+          <t>gr_30_30.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,20 +601,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.913562817502868</v>
+        <v>11.86933820735485</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00733184814453125</v>
+        <v>0.129218578338623</v>
       </c>
       <c r="G5" t="n">
-        <v>1007</v>
+        <v>900</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66.48767021742641</v>
+        <v>12.41717072759173</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02747368812561035</v>
+        <v>0.01548933982849121</v>
       </c>
       <c r="G6" t="n">
-        <v>1104</v>
+        <v>236</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
+          <t>05r0100.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66.5125181458945</v>
+        <v>12.63404220515477</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0104522705078125</v>
+        <v>0.00245976448059082</v>
       </c>
       <c r="G7" t="n">
-        <v>1104</v>
+        <v>236</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.86393030934931</v>
+        <v>8270300.23229669</v>
       </c>
       <c r="E8" t="n">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1763081550598145</v>
+        <v>0.07952570915222168</v>
       </c>
       <c r="G8" t="n">
-        <v>900</v>
+        <v>3134</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
+          <t>bcsstm23.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,20 +749,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.86933820735485</v>
+        <v>8270311.116852832</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05591607093811035</v>
+        <v>0.05410361289978027</v>
       </c>
       <c r="G9" t="n">
-        <v>900</v>
+        <v>3134</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.41717072759173</v>
+        <v>16.40635975914216</v>
       </c>
       <c r="E10" t="n">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004272222518920898</v>
+        <v>0.006129026412963867</v>
       </c>
       <c r="G10" t="n">
-        <v>236</v>
+        <v>1005</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
+          <t>dwt_1005.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,25 +823,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>12.63404220515477</v>
+        <v>16.40643403711349</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001007556915283203</v>
+        <v>0.004851102828979492</v>
       </c>
       <c r="G11" t="n">
-        <v>236</v>
+        <v>1005</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,25 +860,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.523646707394455</v>
+        <v>66.48767021742641</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009787082672119141</v>
+        <v>0.0426781177520752</v>
       </c>
       <c r="G12" t="n">
-        <v>245</v>
+        <v>1104</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
+          <t>herman4.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,25 +897,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.523875352301671</v>
+        <v>66.5125181458945</v>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0006365776062011719</v>
+        <v>0.01664400100708008</v>
       </c>
       <c r="G13" t="n">
-        <v>245</v>
+        <v>1104</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>symmetric</t>
+          <t>general</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,25 +934,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4359440.548861713</v>
+        <v>9.38929622309684</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0007212162017822266</v>
+        <v>0.0581505298614502</v>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>1242</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
+          <t>dwt_1242.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,25 +971,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4359599.815813746</v>
+        <v>9.394188915458207</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0004839897155761719</v>
+        <v>0.02043795585632324</v>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>1242</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9.38929622309684</v>
+        <v>8.912431480213071</v>
       </c>
       <c r="E16" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04659938812255859</v>
+        <v>0.0207819938659668</v>
       </c>
       <c r="G16" t="n">
-        <v>1242</v>
+        <v>1007</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
+          <t>dwt_1007.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,16 +1045,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9.394188915458207</v>
+        <v>8.913562817502868</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01630783081054688</v>
+        <v>0.01305174827575684</v>
       </c>
       <c r="G17" t="n">
-        <v>1242</v>
+        <v>1007</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,20 +1082,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8270300.23229669</v>
+        <v>8.523646707394455</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05994796752929688</v>
+        <v>0.001848220825195312</v>
       </c>
       <c r="G18" t="n">
-        <v>3134</v>
+        <v>245</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
+          <t>dwt_245.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,20 +1119,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8270311.116852832</v>
+        <v>8.523875352301671</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03480172157287598</v>
+        <v>0.001606464385986328</v>
       </c>
       <c r="G19" t="n">
-        <v>3134</v>
+        <v>245</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
